--- a/pred_ohlcv/54_21/2019-10-26 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 HDAC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-154822.90840477</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-154822.90840477</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-154822.90840477</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-154289.90840477</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-154289.90840477</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-159250.58780477</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-274290.28460477</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-163349.8286899399</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-65221.37178993992</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-51518.47888993992</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-138208.8501899399</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-138198.8501899399</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>395290.7866635401</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>354853.4327635401</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>354853.4327635401</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>354853.4327635401</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>388744.4217635401</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>388923.2881635401</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>386523.1468635401</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>386523.1468635401</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>363788.7143635401</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>488794.4813635401</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>488794.4813635401</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>599716.4053635402</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>599823.8659635402</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>599823.8659635402</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>575163.6770635402</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>571126.4768635402</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>571229.4314635403</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>567229.4314635403</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>551237.8791635403</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>551237.8791635403</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>486828.3834635403</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>480019.3834635403</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>480109.3834635403</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>480069.3834635403</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>480261.9667635403</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>480261.9667635403</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>480271.9667635403</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>472932.0093635403</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>472932.0093635403</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>120195.8322635404</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>120235.8322635404</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>554553.6059635404</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>554553.6059635404</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>532434.0401635404</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>533034.0401635404</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>534311.7253635403</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>567301.2319635403</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>524564.2340635404</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>524564.2340635404</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>524586.2340635404</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>524398.2340635404</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>524398.2340635404</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>524398.2340635404</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>524398.2340635404</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>524408.2340635404</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>426242.4058635404</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>410118.1102635404</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>411426.2991635404</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>411426.2991635404</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>340689.9220635404</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>264475.7720635404</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>264475.7720635404</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>272256.7720635404</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>272280.2720635404</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>272280.2720635404</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>217675.8734635404</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>217675.8734635404</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>217693.8734635404</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>217693.8734635404</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>217693.8734635404</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>217491.8734635404</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>288373.1839635404</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>442997.8834635405</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>444997.8834635405</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>444997.8834635405</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>442663.8834635405</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>382663.8834635405</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>382673.8834635405</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>382673.8834635405</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>382673.8834635405</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>382613.8834635405</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>382613.8834635405</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>382613.8834635405</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>372832.1142635405</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>372832.1142635405</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>372832.1142635405</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>372588.1142635405</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>372588.1142635405</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>373747.1380635405</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>336132.1240635405</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>305397.4708635405</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>266642.4708635405</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 HDAC ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-154289.90840477</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-154289.90840477</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-159250.58780477</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-274290.28460477</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-163349.8286899399</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-65221.37178993992</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-65280.47888993992</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-65280.47888993992</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-51518.47888993992</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-51518.47888993992</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-138369.4788899399</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-138208.8501899399</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-138198.8501899399</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>395290.7866635401</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>354853.4327635401</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>354853.4327635401</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>354853.4327635401</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>388744.4217635401</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>388923.2881635401</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>379323.1468635401</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>386523.1468635401</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>386523.1468635401</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>444997.8834635405</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>444997.8834635405</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>442663.8834635405</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>382663.8834635405</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>382673.8834635405</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>382673.8834635405</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>382673.8834635405</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>382613.8834635405</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>382613.8834635405</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>372832.1142635405</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
